--- a/Excel Files/PQ Challenges/PQ Challenge 2 Problem.xlsx
+++ b/Excel Files/PQ Challenges/PQ Challenge 2 Problem.xlsx
@@ -5,16 +5,58 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PQ Challenges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Excel-BI-Python\Excel Files\PQ Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71406C66-BDD7-41A7-930D-A18D74211217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF14A289-5955-44EC-90B1-F2DA364623B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="ADDTH">_xlfn.LAMBDA(_xlpm.number, _xlfn.LET(_xlpm.LastDigit, RIGHT(_xlpm.number), _xlpm.LastTwo, RIGHT(_xlpm.number, 2), _xlpm.Suffix, _xlfn.IFS(OR(_xlpm.LastTwo = "11", _xlpm.LastTwo = "12", _xlpm.LastTwo = "13"), "th", _xlpm.LastDigit = "1", "st", _xlpm.LastDigit = "2", "nd", _xlpm.LastDigit = "3", "rd", TRUE, "th"), _xlpm.number &amp; _xlpm.Suffix))</definedName>
+    <definedName name="AMOUNTROWFN">_xlfn.LAMBDA(_xlpm.AmountColIndex,_xlpm.MaximumAmount, _xlfn.LAMBDA(_xlpm.RowData, _xlfn.LET(_xlpm._TotalAmount, INDEX(_xlpm.RowData, 1, _xlpm.AmountColIndex), _xlpm._TotalSplitRowCount, ROUNDUP(_xlpm._TotalAmount / _xlpm.MaximumAmount, 0), _xlpm._LastValue, IF(_xlpm._TotalSplitRowCount = 1, _xlpm._TotalAmount, _xlpm._TotalAmount - (_xlpm._TotalSplitRowCount - 1) * _xlpm.MaximumAmount), _xlpm._SplittedAmount, IF(_xlpm._TotalSplitRowCount = 1, _xlpm._TotalAmount, _xlfn.VSTACK(_xlfn.DROP(_xlfn.SEQUENCE(_xlpm._TotalSplitRowCount, 1, _xlpm.MaximumAmount, 0), -1), _xlpm._LastValue)), _xlpm._Result, _xlfn.MAKEARRAY(_xlpm._TotalSplitRowCount, COLUMNS(_xlpm.RowData), _xlfn.LAMBDA(_xlpm.RowIndex,_xlpm.ColIndex, IF(_xlpm.ColIndex = _xlpm.AmountColIndex, INDEX(_xlpm._SplittedAmount, _xlpm.RowIndex, 1), INDEX(_xlpm.RowData, 1, _xlpm.ColIndex)))), _xlpm._Result)))</definedName>
+    <definedName name="AToZ">_xlfn.LAMBDA(_xlop.IsLowerCase, _xlfn.LET(_xlpm.IsLowerCaseSanitized, IF(_xlfn.ISOMITTED(_xlpm.IsLowerCase), FALSE, _xlpm.IsLowerCase), _xlpm.Chars, CHAR(CODE("A") + _xlfn.SEQUENCE(26) - 1), _xlpm.Result, IF(_xlpm.IsLowerCaseSanitized, LOWER(_xlpm.Chars), _xlpm.Chars), _xlpm.Result))</definedName>
+    <definedName name="BYROWHSTACKER">_xlfn.LAMBDA(_xlpm.Array,_xlpm.RowTransformFunction, BYROWSTACKER(_xlfn.LAMBDA(_xlpm.First,_xlpm.Second, _xlfn.HSTACK(_xlpm.First, _xlpm.Second)))(_xlpm.RowTransformFunction)(_xlpm.Array))</definedName>
+    <definedName name="BYROWSTACKER">_xlfn.LAMBDA(_xlop.Stacker_Function, _xlfn.LAMBDA(_xlpm.RowTransformFunction, _xlfn.LAMBDA(_xlpm.Array, _xlfn.LET(_xlpm._Stacker_Function, IF(_xlfn.ISOMITTED(_xlpm.Stacker_Function), _xlfn.LAMBDA(_xlpm.First,_xlpm.Second, _xlfn.VSTACK(_xlpm.First, _xlpm.Second)), _xlpm.Stacker_Function), _xlpm._RowSequenc, _xlfn.SEQUENCE(ROWS(_xlpm.Array)), _xlpm._FirstRowData, _xlfn.TAKE(_xlpm.Array, 1), _xlpm._ProcessedFirstRow, _xlpm.RowTransformFunction(_xlpm._FirstRowData), _xlpm._StackData, _xlfn.REDUCE(_xlpm._ProcessedFirstRow, _xlfn.DROP(_xlpm._RowSequenc, 1), _xlfn.LAMBDA(_xlpm.StackedData,_xlpm.CurrentRowIndex, _xlfn.LET(_xlpm.CurrentRowData, INDEX(_xlpm.Array, _xlpm.CurrentRowIndex, ), _xlpm._Stacker_Function(_xlpm.StackedData, _xlpm.RowTransformFunction(_xlpm.CurrentRowData))))), _xlpm._Result, IF(ROWS(_xlpm.Array) = 1, _xlpm._ProcessedFirstRow, _xlpm._StackData), _xlpm._Result))))</definedName>
+    <definedName name="BYROWVSTACKER">_xlfn.LAMBDA(_xlpm.Array,_xlpm.RowTransformFunction, BYROWSTACKER()(_xlpm.RowTransformFunction)(_xlpm.Array))</definedName>
+    <definedName name="CharsType">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.ToChars, _xlfn.LAMBDA(_xlpm.InputText, IF(_xlpm.InputText = "", "", MID(_xlpm.InputText, _xlfn.SEQUENCE(LEN(_xlpm.InputText)), 1))), _xlpm.Chars, _xlpm.ToChars(_xlpm.Text), _xlpm.Code, CODE(UPPER(_xlpm.Chars)), _xlpm.IsAlphabet, (_xlpm.Code &gt;= 65) * (_xlpm.Code &lt;= 90), _xlpm.IsDigit, (_xlpm.Code &gt;= 48) * (_xlpm.Code &lt;= 57), _xlpm.Type, IF(_xlpm.IsAlphabet, "Alphabet", IF(_xlpm.IsDigit, "Digit", "Special")), _xlpm.Result, _xlfn.HSTACK(_xlpm.Chars, _xlpm.Type), _xlpm.Result))</definedName>
+    <definedName name="CHOOSETABLECOLUMNS">_xlfn.LAMBDA(_xlpm.Table,_xlpm.ColumnsToSelect, _xlfn.LET(_xlpm.FirstColumnToSelect, INDEX(_xlpm.ColumnsToSelect, 1, 1), _xlpm.ColumnIndexes, IF(AND(ISNUMBER(_xlpm.FirstColumnToSelect), IFERROR(AND(_xlpm.FirstColumnToSelect &gt; 0, _xlpm.FirstColumnToSelect &lt;= COLUMNS(_xlpm.Table), TRUNC(_xlpm.FirstColumnToSelect) = _xlpm.FirstColumnToSelect), FALSE)), _xlpm.ColumnsToSelect, MATCH(_xlpm.ColumnsToSelect, INDEX(_xlpm.Table, 1, ), 0)), _xlpm.SelectedColumns, INDEX(_xlpm.Table, _xlfn.SEQUENCE(ROWS(_xlpm.Table)), _xlpm.ColumnIndexes), _xlpm.SelectedColumns))</definedName>
+    <definedName name="CONVERTTOSECONDS">_xlfn.LAMBDA(_xlpm.years,_xlpm.weeks,_xlpm.days,_xlpm.hours,_xlpm.minutes,_xlpm.seconds, _xlfn.LET(_xlpm.SecondsPerMinute, 60, _xlpm.SecondsPerHour, _xlpm.SecondsPerMinute * 60, _xlpm.SecondsPerDay, _xlpm.SecondsPerHour * 24, _xlpm.SecondsPerWeek, _xlpm.SecondsPerDay * 7, _xlpm.SecondsPerYear, _xlpm.SecondsPerDay * 365, _xlpm.TotalSeconds, _xlpm.years * _xlpm.SecondsPerYear + _xlpm.weeks * _xlpm.SecondsPerWeek + _xlpm.days * _xlpm.SecondsPerDay + _xlpm.hours * _xlpm.SecondsPerHour + _xlpm.minutes * _xlpm.SecondsPerMinute + _xlpm.seconds, _xlpm.TotalSeconds))</definedName>
+    <definedName name="CROSSJOIN">_xlfn.LAMBDA(_xlpm.table1,_xlpm.table2, _xlfn.LET(_xlpm.Data1, _xlfn.DROP(_xlpm.table1, 1), _xlpm.Data2, _xlfn.DROP(_xlpm.table2, 1), _xlpm.D1Rows, ROWS(_xlpm.Data1), _xlpm.D1Cols, COLUMNS(_xlpm.Data1), _xlpm.D2Rows, ROWS(_xlpm.Data2), _xlpm.D2Cols, COLUMNS(_xlpm.Data2), _xlpm.OuterJoinedData, _xlfn.MAKEARRAY(_xlpm.D1Rows * _xlpm.D2Rows, _xlpm.D1Cols + _xlpm.D2Cols, _xlfn.LAMBDA(_xlpm.i,_xlpm.j, IF(_xlpm.j &lt;= _xlpm.D1Cols, INDEX(_xlpm.Data1, ROUNDUP(_xlpm.i / _xlpm.D2Rows, 0), _xlpm.j), INDEX(_xlpm.Data2, MOD(_xlpm.i - 1, _xlpm.D2Rows) + 1, _xlpm.j - _xlpm.D1Cols)))), _xlpm.WithHeader, _xlfn.VSTACK(_xlfn.HSTACK(_xlfn.TAKE(_xlpm.table1, 1), _xlfn.TAKE(_xlpm.table2, 1)), _xlpm.OuterJoinedData), _xlpm.WithHeader))</definedName>
+    <definedName name="FILLBLANKFROMLEFT">_xlfn.LAMBDA(_xlpm.DataMatrix, _xlfn.LET(_xlpm._FillRowVectorFromLeft, _xlfn.LAMBDA(_xlpm.RowVector, _xlfn.SCAN("", _xlpm.RowVector, _xlfn.LAMBDA(_xlpm.Acc,_xlpm.Curr, IF(_xlpm.Curr = "", _xlpm.Acc, _xlpm.Curr)))), _xlpm._FirstRowFilled, _xlpm._FillRowVectorFromLeft(_xlfn.TAKE(_xlpm.DataMatrix, 1)), _xlpm._Row2ToN, _xlfn.SEQUENCE(ROWS(_xlpm.DataMatrix) - 1, , 2), _xlpm._Result, _xlfn.REDUCE(_xlpm._FirstRowFilled, _xlpm._Row2ToN, _xlfn.LAMBDA(_xlpm.Acc,_xlpm.Curr, _xlfn.LET(_xlpm.CurrentRowFilled, _xlpm._FillRowVectorFromLeft(_xlfn.CHOOSEROWS(_xlpm.DataMatrix, _xlpm.Curr)), _xlfn.VSTACK(_xlpm.Acc, _xlpm.CurrentRowFilled)))), _xlpm._Result))</definedName>
+    <definedName name="FilterColumns">_xlfn.LAMBDA(_xlpm.TableData,_xlpm.ColumnNameOrIndexes,_xlpm.FilterForValues,_xlop.ComparisionOperator,_xlop.IsHeaderPresent,_xlop.LogicalOperator, _xlfn.LET(_xlpm.ColumnNameOrIndexes, _xlfn.TOROW(_xlpm.ColumnNameOrIndexes), _xlpm.FilterForValues, _xlfn.TOROW(_xlpm.FilterForValues), _xlpm.LogicalOperator, IF(_xlfn.ISOMITTED(_xlpm.LogicalOperator), "AND", _xlpm.LogicalOperator), _xlpm.IsHeaderPresent, IF(_xlfn.ISOMITTED(_xlpm.IsHeaderPresent), TRUE, _xlpm.IsHeaderPresent), _xlpm._FilterItemCount, COLUMNS(_xlpm.ColumnNameOrIndexes), _xlpm.ComparisionOperator, IF(_xlfn.ISOMITTED(_xlpm.ComparisionOperator), _xlfn.EXPAND("=", 1, _xlpm._FilterItemCount, "="), _xlpm.ComparisionOperator), _xlpm._Header, _xlfn.CHOOSEROWS(_xlpm.TableData, 1), _xlpm._IsColumnIndexProvided, AND(ISNUMBER(_xlpm.ColumnNameOrIndexes)), _xlpm._Data, IF(_xlpm.IsHeaderPresent, _xlfn.DROP(_xlpm.TableData, 1), _xlpm.TableData), _xlpm._ValueMatcher, _xlfn.LAMBDA(_xlpm.Vector,_xlpm.Operator,_xlpm.MatchValue, _xlfn.SWITCH(_xlpm.Operator, "=", _xlpm.Vector = _xlpm.MatchValue, "&lt;&gt;", _xlpm.Vector &lt;&gt; _xlpm.MatchValue, "&gt;", _xlpm.Vector &gt; _xlpm.MatchValue, "&lt;", _xlpm.Vector &lt; _xlpm.MatchValue, "&gt;=", _xlpm.Vector &gt;= _xlpm.MatchValue, "&lt;=", _xlpm.Vector &lt;= _xlpm.MatchValue, NA())), _xlpm._CorrectColIndex, IF(_xlpm._IsColumnIndexProvided, _xlpm.ColumnNameOrIndexes, MATCH(_xlpm.ColumnNameOrIndexes, _xlpm._Header, 0)), _xlpm._Seq, _xlfn.SEQUENCE(_xlpm._FilterItemCount), _xlpm._RowSelectionBooleanExpression, _xlfn.REDUCE("", _xlpm._Seq, _xlfn.LAMBDA(_xlpm.Acc,_xlpm.Curr, _xlfn.LET(_xlpm.ColIndex, INDEX(_xlpm._CorrectColIndex, 1, _xlpm.Curr) * 1, _xlpm.FilterValueForColIndex, INDEX(_xlpm.FilterForValues, 1, _xlpm.Curr), _xlpm.CurrentColOperator, IFERROR(INDEX(_xlpm.ComparisionOperator, 1, _xlpm.Curr), "="), _xlpm.ColData, _xlfn.CHOOSECOLS(_xlpm._Data, _xlpm.ColIndex), _xlpm.IsMatch, _xlpm._ValueMatcher(_xlpm.ColData, _xlpm.CurrentColOperator, _xlpm.FilterValueForColIndex), _xlpm.Result, _xlfn.HSTACK(_xlpm.Acc, _xlpm.IsMatch), _xlpm.Result))), _xlpm._RemoveFirstColFromBooleanExpression, _xlfn.DROP(_xlpm._RowSelectionBooleanExpression, , 1), _xlpm._RowSelector, IF(UPPER(_xlpm.LogicalOperator) = "AND", _xlfn.LAMBDA(_xlpm.Row, AND(_xlpm.Row)), _xlfn.LAMBDA(_xlpm.Row, OR(_xlpm.Row))), _xlpm._SelectRowOrNot, _xlfn.BYROW(_xlpm._RemoveFirstColFromBooleanExpression, _xlpm._RowSelector), _xlpm._FilteredData, _xlfn._xlws.FILTER(_xlpm._Data, _xlpm._SelectRowOrNot), _xlpm._Result, IF(_xlpm.IsHeaderPresent, _xlfn.VSTACK(_xlpm._Header, _xlpm._FilteredData), _xlpm._FilteredData), _xlpm._Result))</definedName>
+    <definedName name="HUMANIZESECONDS">_xlfn.LAMBDA(_xlpm.seconds, _xlfn.LET(_xlpm.SecondsPerMinute, 60, _xlpm.SecondsPerHour, _xlpm.SecondsPerMinute * 60, _xlpm.SecondsPerDay, _xlpm.SecondsPerHour * 24, _xlpm.SecondsPerWeek, _xlpm.SecondsPerDay * 7, _xlpm.SecondsPerYear, _xlpm.SecondsPerDay * 365, _xlpm.Years, INT(_xlpm.seconds / _xlpm.SecondsPerYear), _xlpm.Weeks, _xlfn.LET(_xlpm.x, INT((_xlpm.seconds - _xlpm.Years * _xlpm.SecondsPerYear) / _xlpm.SecondsPerDay), IF(MOD(_xlpm.x, 7) = 0, _xlpm.x / 7, 0)), _xlpm.Days, INT((_xlpm.seconds - _xlpm.Years * _xlpm.SecondsPerYear - _xlpm.Weeks * _xlpm.SecondsPerWeek) / _xlpm.SecondsPerDay), _xlpm.Hours, INT((_xlpm.seconds - _xlpm.Years * _xlpm.SecondsPerYear - _xlpm.Weeks * _xlpm.SecondsPerWeek - _xlpm.Days * _xlpm.SecondsPerDay) / _xlpm.SecondsPerHour), _xlpm.Minutes, INT((_xlpm.seconds - _xlpm.Years * _xlpm.SecondsPerYear - _xlpm.Weeks * _xlpm.SecondsPerWeek - _xlpm.Days * _xlpm.SecondsPerDay - _xlpm.Hours * _xlpm.SecondsPerHour) / _xlpm.SecondsPerMinute), _xlpm.Secs, _xlpm.seconds - _xlpm.Years * _xlpm.SecondsPerYear - _xlpm.Weeks * _xlpm.SecondsPerWeek - _xlpm.Days * _xlpm.SecondsPerDay - _xlpm.Hours * _xlpm.SecondsPerHour - _xlpm.Minutes * _xlpm.SecondsPerMinute, _xlpm.PluralWording, {"# year[s]";"# week[s]";"# day[s]";"# hour[s]";"# minute[s]";"# second[s]"}, _xlpm.Nums, CHOOSE(_xlfn.SEQUENCE(6), _xlpm.Years, _xlpm.Weeks, _xlpm.Days, _xlpm.Hours, _xlpm.Minutes, _xlpm.Secs), _xlpm.Pluralized, MID(_xlfn.REDUCE("", _xlfn.SEQUENCE(ROWS(_xlpm.PluralWording)), _xlfn.LAMBDA(_xlpm.tot,_xlpm.x, _xlpm.tot &amp; IF(INDEX(_xlpm.Nums, _xlpm.x, 1) = 0, "", ", " &amp; PLURALIZE(INDEX(_xlpm.PluralWording, _xlpm.x, 1), INDEX(_xlpm.Nums, _xlpm.x, 1))))), 3, 999), _xlpm.Pluralized))</definedName>
+    <definedName name="ISPALINDROME">_xlfn.LAMBDA(_xlpm.NumberOrText,_xlop.ConsiderCase, _xlfn.LET(_xlpm._CorrectCaseSensitivity, IF(_xlfn.ISOMITTED(_xlpm.ConsiderCase), TRUE, _xlpm.ConsiderCase), _xlpm._fxForOneItem, _xlfn.LAMBDA(_xlpm.OneTextOrNumber, _xlfn.LET(_xlpm._Seq, _xlfn.SEQUENCE(LEN(_xlpm.OneTextOrNumber)), _xlpm._Chars, MID(_xlpm.OneTextOrNumber, _xlpm._Seq, 1), _xlpm._ReverseChars, MID(_xlpm.OneTextOrNumber, _xlfn._xlws.SORT(_xlpm._Seq, , -1), 1), AND(_xlpm._Chars = _xlpm._ReverseChars))), _xlpm._CorrectTextForCasehaviour, IF(_xlpm._CorrectCaseSensitivity, _xlpm.NumberOrText, LOWER(_xlpm.NumberOrText)), _xlpm._Result, _xlfn.MAP(_xlpm._CorrectTextForCasehaviour, _xlpm._fxForOneItem), _xlpm._Result))</definedName>
+    <definedName name="ISPRIME">_xlfn.LAMBDA(_xlpm.Number, _xlfn.LET(_xlpm._SquareRoot, INT(SQRT(_xlpm.Number)), _xlpm._InitialListCheck, IF(_xlpm.Number &lt;= 1, FALSE, IF(OR(_xlpm.Number = 2, _xlpm.Number = 3), TRUE, "Check Further")), _xlpm._Seq, _xlfn.SEQUENCE(_xlpm._SquareRoot - 1, 1, 2), _xlpm._IsDivisble, OR(MOD(_xlpm.Number, _xlpm._Seq) = 0), _xlpm._Result, IF(_xlpm._InitialListCheck = "Check Further", NOT(_xlpm._IsDivisble), _xlpm._InitialListCheck), _xlpm._Result))</definedName>
+    <definedName name="KeepDigitsAndAlphabets">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.ToChars, _xlfn.LAMBDA(_xlpm.InputText, IF(_xlpm.InputText = "", "", MID(_xlpm.InputText, _xlfn.SEQUENCE(LEN(_xlpm.InputText)), 1))), _xlpm.CharsType, _xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.Chars, _xlpm.ToChars(_xlpm.Text), _xlpm.Code, CODE(UPPER(_xlpm.Chars)), _xlpm.IsAlphabet, (_xlpm.Code &gt;= 65) * (_xlpm.Code &lt;= 90), _xlpm.IsDigit, (_xlpm.Code &gt;= 48) * (_xlpm.Code &lt;= 57), _xlpm.Type, IF(_xlpm.IsAlphabet, "Alphabet", IF(_xlpm.IsDigit, "Digit", "Special")), _xlpm.Result, _xlfn.HSTACK(_xlpm.Chars, _xlpm.Type), _xlpm.Result)), _xlpm.CategorizeChars, _xlpm.CharsType(_xlpm.Text), _xlpm.TokenColData, _xlfn.CHOOSECOLS(_xlpm.CategorizeChars, 2), _xlpm.FilteredData, _xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(_xlpm.CategorizeChars, 1), ((_xlpm.TokenColData = "Alphabet") + (_xlpm.TokenColData = "Digit"))), _xlpm.Result, _xlfn.CONCAT(IFERROR(_xlpm.FilteredData, "")), _xlpm.Result))</definedName>
+    <definedName name="KeepOnlyAlphabets">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.ToChars, _xlfn.LAMBDA(_xlpm.InputText, IF(_xlpm.InputText = "", "", MID(_xlpm.InputText, _xlfn.SEQUENCE(LEN(_xlpm.InputText)), 1))), _xlpm.CharsType, _xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.Chars, _xlpm.ToChars(_xlpm.Text), _xlpm.Code, CODE(UPPER(_xlpm.Chars)), _xlpm.IsAlphabet, (_xlpm.Code &gt;= 65) * (_xlpm.Code &lt;= 90), _xlpm.IsDigit, (_xlpm.Code &gt;= 48) * (_xlpm.Code &lt;= 57), _xlpm.Type, IF(_xlpm.IsAlphabet, "Alphabet", IF(_xlpm.IsDigit, "Digit", "Special")), _xlpm.Result, _xlfn.HSTACK(_xlpm.Chars, _xlpm.Type), _xlpm.Result)), _xlpm.CategorizeChars, _xlpm.CharsType(_xlpm.Text), _xlpm.FilteredData, _xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(_xlpm.CategorizeChars, 1), _xlfn.CHOOSECOLS(_xlpm.CategorizeChars, 2) = "Alphabet"), _xlpm.Result, _xlfn.CONCAT(IFERROR(_xlpm.FilteredData, "")), _xlpm.Result))</definedName>
+    <definedName name="KeepOnlyDigits">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.ToChars, _xlfn.LAMBDA(_xlpm.InputText, IF(_xlpm.InputText = "", "", MID(_xlpm.InputText, _xlfn.SEQUENCE(LEN(_xlpm.InputText)), 1))), _xlpm.CharsType, _xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.Chars, _xlpm.ToChars(_xlpm.Text), _xlpm.Code, CODE(UPPER(_xlpm.Chars)), _xlpm.IsAlphabet, (_xlpm.Code &gt;= 65) * (_xlpm.Code &lt;= 90), _xlpm.IsDigit, (_xlpm.Code &gt;= 48) * (_xlpm.Code &lt;= 57), _xlpm.Type, IF(_xlpm.IsAlphabet, "Alphabet", IF(_xlpm.IsDigit, "Digit", "Special")), _xlpm.Result, _xlfn.HSTACK(_xlpm.Chars, _xlpm.Type), _xlpm.Result)), _xlpm.CategorizeChars, _xlpm.CharsType(_xlpm.Text), _xlpm.FilteredData, _xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(_xlpm.CategorizeChars, 1), _xlfn.CHOOSECOLS(_xlpm.CategorizeChars, 2) = "Digit"), _xlpm.Result, _xlfn.CONCAT(IFERROR(_xlpm.FilteredData, "")), _xlpm.Result))</definedName>
+    <definedName name="MAXPOINTANDPATHEXTRACTOR">_xlfn.LAMBDA(_xlpm.Matrix, _xlfn.LET(_xlpm._NumberOfRow, ROWS(_xlpm.Matrix), _xlpm._NumberOfColumn, COLUMNS(_xlpm.Matrix), _xlpm._RowIndexes, _xlfn.SEQUENCE(_xlpm._NumberOfRow), _xlpm._ColIndexes, _xlfn.SEQUENCE(_xlpm._NumberOfColumn - 1), _xlpm._PreviousRowExtractor, _xlfn.LAMBDA(_xlpm.PreviousMoveText, _xlfn.LET(_xlpm.PreviousRow, _xlfn.TEXTAFTER(_xlpm.PreviousMoveText, "-", -1), IF(ISNA(_xlpm.PreviousRow), _xlpm.PreviousMoveText, _xlpm.PreviousRow))), _xlpm._TotalPointsFromPath, _xlfn.LAMBDA(_xlpm.Path, _xlfn.LET(_xlpm.RowMap, _xlfn.TEXTSPLIT(_xlpm.Path, "-"), _xlfn.REDUCE(0, _xlfn.SEQUENCE(_xlpm._NumberOfColumn), _xlfn.LAMBDA(_xlpm.Acc,_xlpm.ColIndex, _xlpm.Acc + INDEX(_xlpm.Matrix, INDEX(_xlpm.RowMap, 1, _xlpm.ColIndex), _xlpm.ColIndex))))), _xlpm._RowIndexesToCharMapper, _xlfn.LAMBDA(_xlpm.Path, _xlfn.LET(_xlpm.RowMap, _xlfn.TEXTSPLIT(_xlpm.Path, "-"), _xlpm.MapToChar, _xlfn.MAP(_xlpm.RowMap, _xlfn.LAMBDA(_xlpm.RowIndex, CHAR(CODE("A") - 1 + _xlpm.RowIndex))), _xlfn.TEXTJOIN(" --&gt; ", TRUE, _xlpm.MapToChar))), _xlpm._AllPaths, _xlfn.REDUCE(_xlpm._RowIndexes, _xlpm._ColIndexes, _xlfn.LAMBDA(_xlpm.Acc,_xlpm.Curr, _xlfn.LET(_xlpm.PreviousRows, _xlfn.MAP(_xlpm.Acc, _xlpm._PreviousRowExtractor), _xlpm.NextRows, _xlpm.PreviousRows + {-1,0,1}, _xlfn.TOCOL(_xlpm.Acc &amp; "-" &amp; _xlfn.XMATCH(_xlpm.NextRows, _xlpm._RowIndexes), 3)))), _xlpm._Points, _xlfn.MAP(_xlpm._AllPaths, _xlpm._TotalPointsFromPath), _xlpm._MaxPoint, MAX(_xlpm._Points), _xlpm._MaxPaths, _xlfn._xlws.FILTER(_xlpm._AllPaths, _xlpm._Points = _xlpm._MaxPoint), _xlpm._ConvertToCharacter, _xlfn.MAP(_xlpm._MaxPaths, _xlpm._RowIndexesToCharMapper), _xlpm._Result, _xlfn.VSTACK("Maximum Coins:" &amp; _xlpm._MaxPoint, "", _xlpm._ConvertToCharacter), _xlpm._Result))</definedName>
+    <definedName name="PLURALIZE">_xlfn.LAMBDA(_xlpm.text,_xlpm.num,_xlop.num_token,_xlop.num_format, _xlfn.LET(_xlpm.fnGetGroups, _xlfn.LAMBDA(_xlpm.txt,_xlpm.quoted_delimiter, _xlfn.LET(_xlpm.chars, MID(_xlpm.txt, _xlfn.SEQUENCE(LEN(_xlpm.txt)), 1), _xlpm.seq, _xlfn.SEQUENCE(ROWS(_xlfn._xlws.FILTER(_xlpm.chars, _xlpm.chars = LEFT(_xlpm.quoted_delimiter)))), _xlpm.start, FIND(CHAR(160), SUBSTITUTE(_xlpm.txt, LEFT(_xlpm.quoted_delimiter), CHAR(160), _xlpm.seq)), _xlpm.chargroup, MID(_xlpm.txt, _xlpm.start, FIND(RIGHT(_xlpm.quoted_delimiter), _xlpm.txt, _xlpm.start) - _xlpm.start + 1), _xlpm.chargroup)), _xlpm.BracketGroups, _xlpm.fnGetGroups(_xlpm.text, "[]"), _xlpm.BraceGroups, _xlpm.fnGetGroups(_xlpm.text, "{}"), _xlpm.DividingSlash, "/", _xlpm.IsPlural, ABS(_xlpm.num) &lt;&gt; 1, _xlpm.IsNegative, _xlpm.num &lt; 0, _xlpm.fnGetReplacements, _xlfn.LAMBDA(_xlpm.groups,_xlpm.divider,_xlpm.use_secondary, _xlfn.LET(_xlpm.finddivider, FIND(_xlpm.divider, _xlpm.groups), _xlpm.nodivider, IF(_xlpm.use_secondary, MID(_xlpm.groups, 2, LEN(_xlpm.groups) - 2), ""), _xlpm.withdivider, IF(_xlpm.use_secondary, MID(_xlpm.groups, _xlpm.finddivider + 1, LEN(_xlpm.groups) - _xlpm.finddivider - 1), MID(_xlpm.groups, 2, _xlpm.finddivider - 2)), _xlpm.replacement, IF(ISERROR(_xlpm.finddivider), _xlpm.nodivider, _xlpm.withdivider), _xlpm.replacement)), _xlpm.BracketReplacements, _xlpm.fnGetReplacements(_xlpm.BracketGroups, _xlpm.DividingSlash, _xlpm.IsPlural), _xlpm.BraceReplacements, _xlpm.fnGetReplacements(_xlpm.BraceGroups, _xlpm.DividingSlash, _xlpm.IsNegative), _xlpm.ReplaceNumToken, SUBSTITUTE(_xlpm.text, IF(OR(_xlfn.ISOMITTED(_xlpm.num_token), _xlpm.num_token = ""), "#", _xlpm.num_token), IF(OR(_xlfn.ISOMITTED(_xlpm.num_format), _xlpm.num_format = ""), _xlpm.num, TEXT(_xlpm.num, _xlpm.num_format))), _xlpm.ReplaceBracketGroups, IFERROR(_xlfn.REDUCE(_xlpm.ReplaceNumToken, _xlfn.SEQUENCE(ROWS(_xlpm.BracketGroups)), _xlfn.LAMBDA(_xlpm.tot,_xlpm.x, SUBSTITUTE(_xlpm.tot, INDEX(_xlpm.BracketGroups, _xlpm.x), INDEX(_xlpm.BracketReplacements, _xlpm.x)))), _xlpm.ReplaceNumToken), _xlpm.ReplaceBraceGroups, IFERROR(_xlfn.REDUCE(_xlpm.ReplaceBracketGroups, _xlfn.SEQUENCE(ROWS(_xlpm.BraceGroups)), _xlfn.LAMBDA(_xlpm.tot,_xlpm.x, SUBSTITUTE(_xlpm.tot, INDEX(_xlpm.BraceGroups, _xlpm.x), INDEX(_xlpm.BraceReplacements, _xlpm.x)))), _xlpm.ReplaceBracketGroups), _xlpm.ReplaceBraceGroups))</definedName>
+    <definedName name="REMOVECHARACTERS">_xlfn.LAMBDA(_xlpm.Text,_xlpm.CharactersToRemove,_xlfn.LET(_xlpm._MakeArrayIfNot, IF(TYPE(_xlpm.CharactersToRemove) &lt;&gt; 64, _xlfn.MAKEARRAY(1, 1, _xlfn.LAMBDA(_xlpm.row,_xlpm.col, _xlpm.CharactersToRemove)), _xlpm.CharactersToRemove), _xlpm._Result, _xlfn.REDUCE(_xlpm.Text, _xlpm._MakeArrayIfNot, _xlfn.LAMBDA(_xlpm.Final,_xlpm.CurrentChar, SUBSTITUTE(_xlpm.Final, _xlpm.CurrentChar, ""))), _xlpm._Result))</definedName>
+    <definedName name="REMOVEDIGITS">_xlfn.LAMBDA(_xlpm.TEXT,_xlfn.LET(_xlpm._Chars, MID(_xlpm.TEXT, _xlfn.SEQUENCE(LEN(_xlpm.TEXT), 1), 1), _xlpm._Result, _xlfn.REDUCE("", _xlpm._Chars, _xlfn.LAMBDA(_xlpm.Final,_xlpm.CurrentChar, IF(AND(CODE(_xlpm.CurrentChar) &gt;= 48, CODE(_xlpm.CurrentChar) &lt;= 57), _xlpm.Final, _xlpm.Final &amp; _xlpm.CurrentChar))), _xlpm._Result))</definedName>
+    <definedName name="RemoveDigitsAndAlphabets">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.ToChars, _xlfn.LAMBDA(_xlpm.InputText, IF(_xlpm.InputText = "", "", MID(_xlpm.InputText, _xlfn.SEQUENCE(LEN(_xlpm.InputText)), 1))), _xlpm.CharsType, _xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.Chars, _xlpm.ToChars(_xlpm.Text), _xlpm.Code, CODE(UPPER(_xlpm.Chars)), _xlpm.IsAlphabet, (_xlpm.Code &gt;= 65) * (_xlpm.Code &lt;= 90), _xlpm.IsDigit, (_xlpm.Code &gt;= 48) * (_xlpm.Code &lt;= 57), _xlpm.Type, IF(_xlpm.IsAlphabet, "Alphabet", IF(_xlpm.IsDigit, "Digit", "Special")), _xlpm.Result, _xlfn.HSTACK(_xlpm.Chars, _xlpm.Type), _xlpm.Result)), _xlpm.CategorizeChars, _xlpm.CharsType(_xlpm.Text), _xlpm.TokenColData, _xlfn.CHOOSECOLS(_xlpm.CategorizeChars, 2), _xlpm.FilteredData, _xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(_xlpm.CategorizeChars, 1), NOT((_xlpm.TokenColData = "Alphabet") + (_xlpm.TokenColData = "Digit"))), _xlpm.Result, _xlfn.CONCAT(IFERROR(_xlpm.FilteredData, "")), _xlpm.Result))</definedName>
+    <definedName name="ReverseVector">_xlfn.LAMBDA(_xlpm.Vector, _xlfn.LET(_xlpm._RowCount, ROWS(_xlpm.Vector), _xlpm._ColumnCount, COLUMNS(_xlpm.Vector), _xlpm._ReverseSequence, IF(_xlpm._RowCount = 1, _xlfn.SEQUENCE(1, _xlpm._ColumnCount, _xlpm._ColumnCount, -1), _xlfn.SEQUENCE(_xlpm._RowCount, 1, _xlpm._RowCount, -1)), _xlpm._Result, INDEX(_xlpm.Vector, IF(_xlpm._RowCount = 1, 1, _xlpm._ReverseSequence), IF(_xlpm._ColumnCount = 1, 1, _xlpm._ReverseSequence)), _xlpm._Result))</definedName>
+    <definedName name="RUNNINGTOTAL">_xlfn.LAMBDA(_xlpm.NumberVector, _xlfn.SCAN(0, _xlpm.NumberVector, _xlfn.LAMBDA(_xlpm.Acc,_xlpm.Curr, _xlpm.Acc + _xlpm.Curr)))</definedName>
+    <definedName name="SPLITAMOUNTTOROWS">_xlfn.LAMBDA(_xlpm.Array,_xlpm.AmountColIndex,_xlpm.MaximumAmount, _xlfn.LET(_xlpm._RemoveHeader, _xlfn.DROP(_xlpm.Array, 1), _xlpm._AmountDataSplitted, _xlfn.LET(_xlpm.AmountTransformer, AMOUNTROWFN(_xlpm.AmountColIndex, _xlpm.MaximumAmount), BYROWVSTACKER(_xlpm._RemoveHeader, _xlpm.AmountTransformer)), _xlpm._Result, _xlfn.VSTACK(_xlfn.TAKE(_xlpm.Array, 1), _xlpm._AmountDataSplitted), _xlpm._Result))</definedName>
+    <definedName name="SPLITFULLNAME">_xlfn.LAMBDA(_xlpm.FullNameData, _xlfn.LET(_xlpm._FirstName, _xlfn.TEXTBEFORE(_xlpm.FullNameData, " "), _xlpm._WordCount, LEN(_xlpm.FullNameData) - LEN(SUBSTITUTE(_xlpm.FullNameData, " ", "")), _xlpm._MiddleName, IF(_xlpm._WordCount = 1, "", _xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(_xlpm.FullNameData, " "), " ")), _xlpm._LastName, IF(_xlpm._WordCount = 1, _xlfn.TEXTAFTER(_xlpm.FullNameData, " "), _xlfn.TEXTAFTER(_xlpm.FullNameData, " ", 2)), _xlpm._AnyMiddleNamePresent, NOT(AND(_xlpm._WordCount = 1)), _xlpm._Header, IF(_xlpm._AnyMiddleNamePresent, {"First Name","Middle Name","Last Name"}, {"First Name","Last Name"}), _xlpm._Result, _xlfn.VSTACK(_xlpm._Header, IF(AND(_xlpm._WordCount = 1), _xlfn.HSTACK(_xlpm._FirstName, _xlpm._LastName), _xlfn.HSTACK(_xlpm._FirstName, _xlpm._MiddleName, _xlpm._LastName))), _xlpm._Result))</definedName>
+    <definedName name="SPLITTEXTTOCHARACTER">_xlfn.LAMBDA(_xlpm.InputText,
+    _xlfn.LET(
+        _xlpm.Indexes, _xlfn.SEQUENCE(LEN(_xlpm.InputText)),
+        _xlpm.Chars, MID(_xlpm.InputText, _xlpm.Indexes, 1),
+        _xlpm.CharCodes, CODE(_xlpm.Chars),
+        _xlfn.VSTACK({"Index","Character","Code"}, _xlfn.HSTACK(_xlpm.Indexes, _xlpm.Chars, _xlpm.CharCodes))
+    )
+)</definedName>
+    <definedName name="STRREVERSE">_xlfn.LAMBDA(_xlpm.InputText, _xlfn.LET(_xlpm._RevSeq, _xlfn.SEQUENCE(LEN(_xlpm.InputText), 1, LEN(_xlpm.InputText), -1), _xlpm._Chars, MID(_xlpm.InputText, _xlpm._RevSeq, 1), _xlpm._Result, IF(_xlpm.InputText = "", "", _xlfn.TEXTJOIN("", FALSE, _xlpm._Chars)), _xlpm._Result))</definedName>
+    <definedName name="TEXTTOCOLUMNS">_xlfn.LAMBDA(_xlpm.Text,_xlop.Delimiter,_xlop.QuoteIdentifier, _xlfn.LET(_xlpm.LeftQuote, IF(_xlfn.ISOMITTED(_xlpm.QuoteIdentifier), "", LEFT(_xlpm.QuoteIdentifier, 1)), _xlpm.RightQuote, IF(_xlfn.ISOMITTED(_xlpm.QuoteIdentifier), "", RIGHT(_xlpm.QuoteIdentifier, 1)), _xlpm.Delimiters, _xlfn.IFS(_xlfn.ISOMITTED(_xlpm.Delimiter), ",", COLUMNS(_xlpm.Delimiter) &gt; 1, TRANSPOSE(_xlpm.Delimiter), TRUE, _xlpm.Delimiter), _xlpm.MultiCharDelimiter, IFERROR(INDEX(_xlfn._xlws.FILTER(_xlpm.Delimiters, LEN(_xlpm.Delimiters) &gt; 1), 1), ""), _xlpm.EscapeChar, CHAR(135), _xlpm.EscapeMultiCharDelimiter, SUBSTITUTE(_xlpm.Text, _xlpm.MultiCharDelimiter, _xlpm.EscapeChar), _xlpm.Letters, MID(_xlpm.EscapeMultiCharDelimiter, _xlfn.SEQUENCE(, LEN(_xlpm.EscapeMultiCharDelimiter)), 1), _xlpm.IsQuote, _xlfn.IFNA(IF((_xlpm.Letters = _xlpm.LeftQuote) + (_xlpm.Letters = _xlpm.RightQuote), 1, 0), 0), _xlpm.FindQuotes, _xlfn.SCAN(0, _xlpm.Letters, _xlfn.LAMBDA(_xlpm.s,_xlpm.a, _xlfn.IFS(_xlpm.a = _xlpm.LeftQuote, IF(_xlpm.LeftQuote = _xlpm.RightQuote, IF(_xlpm.s = 0, 1, 0), _xlpm.s + 1), _xlpm.a = _xlpm.RightQuote, _xlpm.s - 1, TRUE, _xlpm.s))) - _xlpm.IsQuote, _xlpm.InQuotes, IF(_xlpm.FindQuotes &gt; 0, _xlpm.FindQuotes, 0), _xlpm.IsDelimiter, --((_xlfn.BYCOL(--(_xlpm.Letters = _xlpm.Delimiters) * _xlfn.SEQUENCE(ROWS(_xlpm.Delimiters)), _xlfn.LAMBDA(_xlpm.delim_match, MAX(_xlpm.delim_match))) + (_xlpm.Letters = _xlpm.EscapeChar)) &gt; 0), _xlpm.UnescapeMultiChar, SUBSTITUTE(_xlpm.Letters, _xlpm.EscapeChar, _xlpm.MultiCharDelimiter), _xlpm.EscapeXML, _xlfn.REDUCE(_xlpm.UnescapeMultiChar, {"&amp;&amp;amp;";"&lt;&amp;lt;";"&gt;&amp;gt;";"'&amp;apos;";"""&amp;quot;"}, _xlfn.LAMBDA(_xlpm.s,_xlpm.a, SUBSTITUTE(_xlpm.s, LEFT(_xlpm.a, 1), RIGHT(_xlpm.a, LEN(_xlpm.a) - 1)))), _xlpm.XMLText, "&lt;r&gt;&lt;c&gt;" &amp; _xlfn.CONCAT(IF((_xlpm.IsDelimiter = 1) * (1 - _xlpm.InQuotes), "&lt;/c&gt;&lt;c&gt;", _xlpm.EscapeXML)) &amp; "&lt;/c&gt;&lt;/r&gt;", _xlpm.SplitXML, IFERROR(TRANSPOSE(_xlfn.FILTERXML(_xlpm.XMLText, "//c")), ""), _xlpm.RemoveQuotes, IF((LEFT(_xlpm.SplitXML, 1) = _xlpm.LeftQuote) * (RIGHT(_xlpm.SplitXML, 1) = _xlpm.RightQuote), IF(LEN(_xlpm.SplitXML) = 2, "", SUBSTITUTE(MID(_xlpm.SplitXML, 2, LEN(_xlpm.SplitXML) - 2), _xlpm.LeftQuote &amp; _xlpm.RightQuote, IF(_xlpm.LeftQuote = _xlpm.RightQuote, _xlpm.LeftQuote, ""))), _xlpm.SplitXML), _xlpm.RemoveQuotes))</definedName>
+    <definedName name="TOCHARS">_xlfn.LAMBDA(_xlpm.InputText, IF(_xlpm.InputText = "", "", MID(_xlpm.InputText, _xlfn.SEQUENCE(LEN(_xlpm.InputText)), 1)))</definedName>
+    <definedName name="UNPIVOT">_xlfn.LAMBDA(_xlpm.table,_xlpm.columns_to_unpivot,_xlop.attribute_name,_xlop.value_name,_xlop.remove_blanks, _xlfn.LET(_xlpm.AttributeLabel, IF(_xlfn.ISOMITTED(_xlpm.attribute_name), "Attribute", _xlpm.attribute_name), _xlpm.ValueLabel, IF(_xlfn.ISOMITTED(_xlpm.value_name), "Value", _xlpm.value_name), _xlpm.FirstColumnToUnpivot, MATCH(INDEX(_xlpm.columns_to_unpivot, , 1), INDEX(_xlpm.table, 1, ), 0), _xlpm.UnpivotColumnCount, COLUMNS(_xlpm.columns_to_unpivot), _xlpm.ColumnNumbers, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.table)), _xlpm.UnpivotColumns, _xlfn._xlws.FILTER(_xlpm.ColumnNumbers, (_xlpm.ColumnNumbers &gt;= _xlpm.FirstColumnToUnpivot) * (_xlpm.ColumnNumbers &lt; _xlpm.FirstColumnToUnpivot + _xlpm.UnpivotColumnCount)), _xlpm.OtherColumns, _xlfn._xlws.FILTER(_xlpm.ColumnNumbers, (_xlpm.ColumnNumbers &lt; _xlpm.FirstColumnToUnpivot) + (_xlpm.ColumnNumbers &gt;= _xlpm.FirstColumnToUnpivot + _xlpm.UnpivotColumnCount)), _xlpm.FullOuterJoin, CROSSJOIN(_xlfn.CHOOSECOLS(_xlpm.table, _xlpm.OtherColumns), _xlfn.VSTACK(_xlpm.AttributeLabel, TRANSPOSE(_xlpm.columns_to_unpivot))), _xlpm.WithValues, _xlfn.HSTACK(_xlpm.FullOuterJoin, _xlfn.VSTACK(_xlpm.ValueLabel, _xlfn.TOCOL(_xlfn.DROP(_xlfn.CHOOSECOLS(_xlpm.table, _xlpm.UnpivotColumns), 1)))), _xlpm.RemoveBlanks, IF(OR(_xlfn.ISOMITTED(_xlpm.remove_blanks), _xlpm.remove_blanks), _xlfn._xlws.FILTER(_xlpm.WithValues, INDEX(_xlpm.WithValues, , COLUMNS(_xlpm.WithValues)) &lt;&gt; ""), IF(_xlpm.WithValues = "", "", _xlpm.WithValues)), _xlpm.ColumnOrder, _xlfn.LET(_xlpm.n, COLUMNS(_xlpm.RemoveBlanks), _xlpm.s, _xlfn.SEQUENCE(1, _xlpm.n), _xlfn.IFS(_xlpm.s &lt; _xlpm.FirstColumnToUnpivot, _xlpm.s, _xlpm.s &lt; _xlpm.FirstColumnToUnpivot + 2, _xlpm.s + _xlpm.n - _xlpm.FirstColumnToUnpivot - 1, TRUE, _xlpm.s - 2)), _xlpm.ReorderColumns, _xlfn.CHOOSECOLS(_xlpm.RemoveBlanks, _xlpm.ColumnOrder), _xlpm.ReorderColumns))</definedName>
+    <definedName name="ValueMatcher">_xlfn.LAMBDA(_xlpm.Vector,_xlpm.Operator,_xlpm.MatchValue, _xlfn.SWITCH(_xlpm.Operator, "=", _xlpm.Vector = _xlpm.MatchValue, "&lt;&gt;", _xlpm.Vector &lt;&gt; _xlpm.MatchValue, "&gt;", _xlpm.Vector &gt; _xlpm.MatchValue, "&lt;", _xlpm.Vector &lt; _xlpm.MatchValue, "&gt;=", _xlpm.Vector &gt;= _xlpm.MatchValue, "&lt;=", _xlpm.Vector &lt;= _xlpm.MatchValue, NA()))</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,6 +74,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1249,13 +1313,42 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="1025" row="10">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B2899B12-630A-42AF-B987-BDC9CD2133CD}">
+  <we:reference id="wa200003696" version="1.2.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.2.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{83C2135D-DB63-4FAF-A7DD-5670711E4907}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1267,8 +1360,8 @@
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1308,8 +1401,15 @@
       <c r="H3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P3" t="str" cm="1">
+        <f t="array" ref="P3:Q26">_xlfn.LAMBDA(_xlpm.Data, _xlfn.LET(_xlpm.Data2, {"A","E","N","T";"B","F",1,9}, _xlpm.MakeOneColumn, _xlfn.TOCOL(_xlpm.Data), _xlpm.IsNumber, ISNUMBER(_xlpm.MakeOneColumn), _xlpm.Alphabets, _xlfn._xlws.FILTER(_xlpm.MakeOneColumn, NOT(_xlpm.IsNumber)), _xlpm.Numbers, _xlfn._xlws.FILTER(_xlpm.MakeOneColumn, _xlpm.IsNumber), _xlpm.Result, _xlfn.VSTACK({"Alpha","Number"}, _xlfn.IFNA(_xlfn.HSTACK(_xlpm.Alphabets, _xlpm.Numbers), "")), _xlpm.Result))(B3:E11)</f>
+        <v>Alpha</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Number</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1328,8 +1428,14 @@
       <c r="H4" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P4" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1348,8 +1454,14 @@
       <c r="H5" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P5" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -1368,8 +1480,14 @@
       <c r="H6" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P6" t="str">
+        <v>N</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1388,8 +1506,14 @@
       <c r="H7" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P7" t="str">
+        <v>T</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>12</v>
       </c>
@@ -1408,8 +1532,14 @@
       <c r="H8" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P8" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>8</v>
       </c>
@@ -1428,8 +1558,14 @@
       <c r="H9" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P9" t="str">
+        <v>F</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>10</v>
       </c>
@@ -1448,8 +1584,14 @@
       <c r="H10" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P10" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <v>6</v>
       </c>
@@ -1468,102 +1610,212 @@
       <c r="H11" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P11" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P12" t="str">
+        <v>O</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P13" t="str">
+        <v>U</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P14" t="str">
+        <v>H</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="P15" t="str">
+        <v>D</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="P16" t="str">
+        <v>I</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="P17" t="str">
+        <v>P</v>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="P18" t="str">
+        <v>V</v>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="P19" t="str">
+        <v>J</v>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="P20" t="str">
+        <v>W</v>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="P21" t="str">
+        <v>K</v>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="P22" t="str">
+        <v>Q</v>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="P23" t="str">
+        <v>L</v>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P24" t="str">
+        <v>R</v>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="7:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H25" s="9"/>
+      <c r="P25" t="str">
+        <v>M</v>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="P26" t="str">
+        <v>S</v>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83C2135D-DB63-4FAF-A7DD-5670711E4907}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>